--- a/lookup_table.xlsx
+++ b/lookup_table.xlsx
@@ -87,7 +87,7 @@
     <t>PERMCITY/HOUSECITY</t>
   </si>
   <si>
-    <t>HOUSETOWN/CONNTOWN</t>
+    <t>PERMTOWN/HOUSETOWN/CONNTOWN</t>
   </si>
   <si>
     <t>代碼</t>
@@ -5317,8 +5317,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.03" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.05469" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.05469" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.3516" style="7" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.05469" style="6" customWidth="1"/>
     <col min="4" max="4" width="9.05469" style="6" customWidth="1"/>
     <col min="5" max="5" width="9.05469" style="6" customWidth="1"/>
